--- a/03-02-25 to 03-08-25 Madison Schedule.xlsx
+++ b/03-02-25 to 03-08-25 Madison Schedule.xlsx
@@ -3999,21 +3999,9 @@
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>@ Store w/ Mike</t>
-        </is>
-      </c>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>

--- a/03-02-25 to 03-08-25 Madison Schedule.xlsx
+++ b/03-02-25 to 03-08-25 Madison Schedule.xlsx
@@ -682,7 +682,7 @@
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="W8" t="inlineStr"/>

--- a/03-02-25 to 03-08-25 Madison Schedule.xlsx
+++ b/03-02-25 to 03-08-25 Madison Schedule.xlsx
@@ -941,7 +941,11 @@
       </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Oil Change Corolla - in Madison Palmer Pickup at store</t>
+        </is>
+      </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>

--- a/03-02-25 to 03-08-25 Madison Schedule.xlsx
+++ b/03-02-25 to 03-08-25 Madison Schedule.xlsx
@@ -3782,7 +3782,12 @@
           <t>Emily L</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr"/>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Driver,
+Gray Van</t>
+        </is>
+      </c>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -3888,15 +3893,10 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>Driver,
-Gray Van</t>
-        </is>
-      </c>
+          <t>Spencer P</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -3932,7 +3932,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="G70" t="inlineStr"/>
@@ -3964,16 +3964,8 @@
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Taylor</t>
-        </is>
-      </c>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>

--- a/03-02-25 to 03-08-25 Madison Schedule.xlsx
+++ b/03-02-25 to 03-08-25 Madison Schedule.xlsx
@@ -1128,7 +1128,12 @@
           <t>Angela</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Optima</t>
+        </is>
+      </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
@@ -1412,15 +1417,10 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Optima</t>
-        </is>
-      </c>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
@@ -3782,12 +3782,7 @@
           <t>Emily L</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>Driver,
-Gray Van</t>
-        </is>
-      </c>
+      <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -3819,10 +3814,15 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Driver,
+Gray Van</t>
+        </is>
+      </c>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>

--- a/03-02-25 to 03-08-25 Madison Schedule.xlsx
+++ b/03-02-25 to 03-08-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y79"/>
+  <dimension ref="A1:Y80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -941,12 +941,12 @@
       </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr">
         <is>
           <t>Oil Change Corolla - in Madison Palmer Pickup at store</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
@@ -988,22 +988,9 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>@ Store,
-Camry 3, Equip</t>
-        </is>
-      </c>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -1071,18 +1058,18 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Driver,
-Corolla</t>
+          <t>@ Store,
+Camry 3, Equip</t>
         </is>
       </c>
       <c r="P16" t="inlineStr"/>
@@ -1154,15 +1141,20 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Lorena</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr"/>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Driver,
+Corolla</t>
+        </is>
+      </c>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -1218,19 +1210,15 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Lorena</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
@@ -1290,15 +1278,19 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr"/>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1361,19 +1353,15 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Savannah</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1434,9 +1422,21 @@
       </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Savannah</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
@@ -1568,11 +1568,7 @@
       </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
@@ -1648,7 +1644,7 @@
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="O24" t="inlineStr"/>
@@ -1709,7 +1705,7 @@
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
         <is>
-          <t>DAVE'S COUNTY MARKET, MERILL</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
@@ -1769,7 +1765,7 @@
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
-          <t>300 E 1ST STREET</t>
+          <t>DAVE'S COUNTY MARKET, MERILL</t>
         </is>
       </c>
       <c r="O26" t="inlineStr"/>
@@ -1838,7 +1834,7 @@
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/kdPUDjUGKN4es7hF7</t>
+          <t>300 E 1ST STREET</t>
         </is>
       </c>
       <c r="O27" t="inlineStr"/>
@@ -1906,7 +1902,7 @@
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
-          <t>5:00 am meet for Sarah &amp; Aivy at Wayside Park</t>
+          <t>https://maps.app.goo.gl/kdPUDjUGKN4es7hF7</t>
         </is>
       </c>
       <c r="O28" t="inlineStr"/>
@@ -1963,7 +1959,11 @@
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>5:00 am meet for Sarah &amp; Aivy at Wayside Park</t>
+        </is>
+      </c>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr">
@@ -2017,21 +2017,9 @@
         </is>
       </c>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2082,17 +2070,17 @@
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Aivy</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Driver</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="P31" t="inlineStr"/>
@@ -2142,17 +2130,17 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Aivy</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>@ Store w/ Sarah</t>
+          <t>Driver</t>
         </is>
       </c>
       <c r="P32" t="inlineStr"/>
@@ -2202,17 +2190,17 @@
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store w/ Sarah</t>
         </is>
       </c>
       <c r="P33" t="inlineStr"/>
@@ -2261,12 +2249,12 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -2312,12 +2300,12 @@
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Jacqui</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -2363,12 +2351,12 @@
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Jacqui</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -2410,12 +2398,12 @@
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -2465,12 +2453,12 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -2532,12 +2520,12 @@
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -2583,12 +2571,12 @@
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Terri</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -2644,9 +2632,21 @@
         </is>
       </c>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Terri</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr"/>
@@ -2743,11 +2743,7 @@
       </c>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
@@ -2792,7 +2788,7 @@
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
@@ -2827,7 +2823,7 @@
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
-          <t>PICK #368 +RX, BROOKFIELD CAL-CAP</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
@@ -2862,7 +2858,7 @@
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t>17295 WEST CAPITOL DR</t>
+          <t>PICK #368 +RX, BROOKFIELD CAL-CAP</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
@@ -2897,7 +2893,7 @@
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/33rm1Fc6q4o</t>
+          <t>17295 WEST CAPITOL DR</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
@@ -2944,7 +2940,7 @@
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
-          <t>SET UP ON REG #1</t>
+          <t>https://goo.gl/maps/33rm1Fc6q4o</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
@@ -2991,7 +2987,7 @@
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
-          <t>*IL Meet is 4:30 am at IL Office</t>
+          <t>SET UP ON REG #1</t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
@@ -3036,7 +3032,11 @@
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr"/>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>*IL Meet is 4:30 am at IL Office</t>
+        </is>
+      </c>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
@@ -3078,21 +3078,9 @@
       </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr"/>
@@ -3131,15 +3119,19 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr"/>
@@ -3190,19 +3182,15 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr"/>
@@ -3249,15 +3237,19 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="O54" t="inlineStr"/>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr"/>
@@ -3292,20 +3284,15 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>Driver,
-Silver Van</t>
-        </is>
-      </c>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr"/>
@@ -3340,15 +3327,20 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr"/>
+          <t>Evelin</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>Driver,
+Silver Van</t>
+        </is>
+      </c>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr"/>
@@ -3387,21 +3379,15 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Optima,
-Rx</t>
-        </is>
-      </c>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr"/>
@@ -3432,15 +3418,21 @@
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Kayla</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Optima,
+Rx</t>
+        </is>
+      </c>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr"/>
@@ -3471,21 +3463,15 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Optima,
-Supv Rx</t>
-        </is>
-      </c>
+          <t>Kayla</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr"/>
@@ -3516,17 +3502,19 @@
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver, 1/2
+Optima,
+Supv Rx</t>
         </is>
       </c>
       <c r="P60" t="inlineStr"/>
@@ -3559,12 +3547,12 @@
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -3602,12 +3590,12 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -3641,12 +3629,12 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -3692,12 +3680,12 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -3743,12 +3731,12 @@
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -3788,9 +3776,21 @@
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
-      <c r="O66" t="inlineStr"/>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr"/>
@@ -3864,11 +3864,7 @@
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t xml:space="preserve">6:30 AM START </t>
-        </is>
-      </c>
+      <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
@@ -3905,7 +3901,7 @@
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr">
         <is>
-          <t xml:space="preserve">MODAS-SCAN </t>
+          <t xml:space="preserve">6:30 AM START </t>
         </is>
       </c>
       <c r="O69" t="inlineStr"/>
@@ -3944,7 +3940,7 @@
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr">
         <is>
-          <t>KELLEY #04, BUCKLEY MOBIL, ROCKFORD</t>
+          <t xml:space="preserve">MODAS-SCAN </t>
         </is>
       </c>
       <c r="O70" t="inlineStr"/>
@@ -3975,7 +3971,7 @@
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr">
         <is>
-          <t>7250 E STATE ST</t>
+          <t>KELLEY #04, BUCKLEY MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="O71" t="inlineStr"/>
@@ -4006,7 +4002,7 @@
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/iWT8Ab5cEgB2</t>
+          <t>7250 E STATE ST</t>
         </is>
       </c>
       <c r="O72" t="inlineStr"/>
@@ -4035,7 +4031,11 @@
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
-      <c r="N73" t="inlineStr"/>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/iWT8Ab5cEgB2</t>
+        </is>
+      </c>
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr"/>
@@ -4061,21 +4061,9 @@
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr"/>
       <c r="R74" t="inlineStr"/>
@@ -4102,15 +4090,19 @@
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="O75" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr"/>
       <c r="R75" t="inlineStr"/>
@@ -4137,12 +4129,12 @@
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="O76" t="inlineStr"/>
@@ -4172,12 +4164,12 @@
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="O77" t="inlineStr"/>
@@ -4207,12 +4199,12 @@
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="O78" t="inlineStr"/>
@@ -4242,12 +4234,12 @@
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>Tina E</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="O79" t="inlineStr"/>
@@ -4262,6 +4254,41 @@
       <c r="X79" t="inlineStr"/>
       <c r="Y79" t="inlineStr"/>
     </row>
+    <row r="80">
+      <c r="A80" t="inlineStr"/>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr"/>
+      <c r="S80" t="inlineStr"/>
+      <c r="T80" t="inlineStr"/>
+      <c r="U80" t="inlineStr"/>
+      <c r="V80" t="inlineStr"/>
+      <c r="W80" t="inlineStr"/>
+      <c r="X80" t="inlineStr"/>
+      <c r="Y80" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/03-02-25 to 03-08-25 Madison Schedule.xlsx
+++ b/03-02-25 to 03-08-25 Madison Schedule.xlsx
@@ -2008,7 +2008,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">

--- a/03-02-25 to 03-08-25 Madison Schedule.xlsx
+++ b/03-02-25 to 03-08-25 Madison Schedule.xlsx
@@ -2008,7 +2008,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2124,9 +2124,21 @@
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>17)</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>

--- a/03-02-25 to 03-08-25 Madison Schedule.xlsx
+++ b/03-02-25 to 03-08-25 Madison Schedule.xlsx
@@ -2252,11 +2252,7 @@
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
@@ -2305,7 +2301,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -2356,7 +2352,7 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>DHILLON'S BP, IRON RIDGE</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -2403,7 +2399,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>210 W PLEASANT ST</t>
+          <t>DHILLON'S BP, IRON RIDGE</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
@@ -2458,7 +2454,7 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/qwc1LRfmy572</t>
+          <t>210 W PLEASANT ST</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
@@ -2525,7 +2521,7 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>4:45 am meet for Sarah &amp; Aivy at Wayside Park</t>
+          <t>https://goo.gl/maps/qwc1LRfmy572</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
@@ -2578,7 +2574,11 @@
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>4:45 am meet for Sarah &amp; Aivy at Wayside Park</t>
+        </is>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
@@ -2628,21 +2628,9 @@
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>Driver</t>
-        </is>
-      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
@@ -2697,17 +2685,17 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Aivy</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>@ Store w/ Sarah</t>
+          <t>Driver</t>
         </is>
       </c>
       <c r="L42" t="inlineStr"/>
@@ -2740,17 +2728,17 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Aivy</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store w/ Sarah</t>
         </is>
       </c>
       <c r="L43" t="inlineStr"/>
@@ -2783,12 +2771,12 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -2828,9 +2816,21 @@
       </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
@@ -2895,11 +2895,7 @@
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
@@ -2944,7 +2940,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
@@ -2991,7 +2987,7 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>KELLEY #32, EDGEBROOK MOBIL, ROCKFORD</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="K49" t="inlineStr"/>
@@ -3038,7 +3034,7 @@
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>1621 N ALPINE RD</t>
+          <t>KELLEY #32, EDGEBROOK MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="K50" t="inlineStr"/>
@@ -3085,7 +3081,7 @@
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/BABsK9aESqG2</t>
+          <t>1621 N ALPINE RD</t>
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
@@ -3126,7 +3122,11 @@
       </c>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/BABsK9aESqG2</t>
+        </is>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
@@ -3176,21 +3176,9 @@
         </is>
       </c>
       <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
@@ -3237,15 +3225,19 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
@@ -3284,12 +3276,12 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="K55" t="inlineStr"/>
@@ -3327,12 +3319,12 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="K56" t="inlineStr"/>
@@ -3379,12 +3371,12 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Tina E</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="K57" t="inlineStr"/>
@@ -3424,8 +3416,16 @@
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">

--- a/03-02-25 to 03-08-25 Madison Schedule.xlsx
+++ b/03-02-25 to 03-08-25 Madison Schedule.xlsx
@@ -917,7 +917,7 @@
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr">
         <is>
-          <t>*IL Meet is 4:45 am at IL Office</t>
+          <t>*IL Meet is 5:15 am at IL Office</t>
         </is>
       </c>
       <c r="W13" t="inlineStr"/>
@@ -942,11 +942,7 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>Oil Change Corolla - in Madison Palmer Pickup at store</t>
-        </is>
-      </c>
+      <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
@@ -958,7 +954,11 @@
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Oil Change Corolla - in Madison Palmer Pickup at store</t>
+        </is>
+      </c>
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr"/>

--- a/03-02-25 to 03-08-25 Madison Schedule.xlsx
+++ b/03-02-25 to 03-08-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y80"/>
+  <dimension ref="A1:Y79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4216,7 +4216,7 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="O78" t="inlineStr"/>
@@ -4251,7 +4251,7 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="O79" t="inlineStr"/>
@@ -4266,41 +4266,6 @@
       <c r="X79" t="inlineStr"/>
       <c r="Y79" t="inlineStr"/>
     </row>
-    <row r="80">
-      <c r="A80" t="inlineStr"/>
-      <c r="B80" t="inlineStr"/>
-      <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr"/>
-      <c r="G80" t="inlineStr"/>
-      <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="N80" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="inlineStr"/>
-      <c r="T80" t="inlineStr"/>
-      <c r="U80" t="inlineStr"/>
-      <c r="V80" t="inlineStr"/>
-      <c r="W80" t="inlineStr"/>
-      <c r="X80" t="inlineStr"/>
-      <c r="Y80" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/03-02-25 to 03-08-25 Madison Schedule.xlsx
+++ b/03-02-25 to 03-08-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y79"/>
+  <dimension ref="A1:Y78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -988,9 +988,22 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>@ Store,
+Camry 3, Equip</t>
+        </is>
+      </c>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -1000,21 +1013,9 @@
       </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
     </row>
@@ -1058,18 +1059,18 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>@ Store,
-Camry 3, Equip</t>
+          <t>Driver,
+Corolla</t>
         </is>
       </c>
       <c r="P16" t="inlineStr"/>
@@ -1083,18 +1084,17 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Corolla</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="X16" t="inlineStr"/>
@@ -1141,20 +1141,15 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>Driver,
-Corolla</t>
-        </is>
-      </c>
+          <t>Lorena</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -1167,15 +1162,20 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr"/>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Corolla</t>
+        </is>
+      </c>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
     </row>
@@ -1210,15 +1210,19 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Lorena</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr"/>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
@@ -1226,12 +1230,12 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="W18" t="inlineStr"/>
@@ -1278,19 +1282,15 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1310,12 +1310,12 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="W19" t="inlineStr"/>
@@ -1353,15 +1353,19 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr"/>
+          <t>Savannah</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1381,12 +1385,12 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="W20" t="inlineStr"/>
@@ -1422,21 +1426,9 @@
       </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>Savannah</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
@@ -1452,20 +1444,15 @@
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>Driver,
-Silver Van</t>
-        </is>
-      </c>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
     </row>
@@ -1516,15 +1503,20 @@
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="W22" t="inlineStr"/>
+          <t>Evelin</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Driver,
+Silver Van</t>
+        </is>
+      </c>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
     </row>
@@ -1568,7 +1560,11 @@
       </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
@@ -1590,20 +1586,15 @@
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Optima</t>
-        </is>
-      </c>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
     </row>
@@ -1644,7 +1635,7 @@
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O24" t="inlineStr"/>
@@ -1663,15 +1654,20 @@
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Kayla</t>
-        </is>
-      </c>
-      <c r="W24" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Optima</t>
+        </is>
+      </c>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
     </row>
@@ -1705,7 +1701,7 @@
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>DAVE'S COUNTY MARKET, MERILL</t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
@@ -1729,12 +1725,12 @@
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Lorena</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="W25" t="inlineStr"/>
@@ -1765,7 +1761,7 @@
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
-          <t>DAVE'S COUNTY MARKET, MERILL</t>
+          <t>300 E 1ST STREET</t>
         </is>
       </c>
       <c r="O26" t="inlineStr"/>
@@ -1784,20 +1780,15 @@
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Optima</t>
-        </is>
-      </c>
+          <t>Lorena</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
     </row>
@@ -1834,7 +1825,7 @@
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
-          <t>300 E 1ST STREET</t>
+          <t>https://maps.app.goo.gl/kdPUDjUGKN4es7hF7</t>
         </is>
       </c>
       <c r="O27" t="inlineStr"/>
@@ -1853,18 +1844,18 @@
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Corolla</t>
+Optima</t>
         </is>
       </c>
       <c r="X27" t="inlineStr"/>
@@ -1902,7 +1893,7 @@
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/kdPUDjUGKN4es7hF7</t>
+          <t>5:00 am meet for Sarah &amp; Aivy at Wayside Park</t>
         </is>
       </c>
       <c r="O28" t="inlineStr"/>
@@ -1921,15 +1912,20 @@
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="W28" t="inlineStr"/>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Corolla</t>
+        </is>
+      </c>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
     </row>
@@ -1959,11 +1955,7 @@
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>5:00 am meet for Sarah &amp; Aivy at Wayside Park</t>
-        </is>
-      </c>
+      <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr">
@@ -1982,8 +1974,16 @@
         </is>
       </c>
       <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
@@ -2017,9 +2017,21 @@
         </is>
       </c>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Jeremiah</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2070,17 +2082,17 @@
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t>Aivy</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>Driver</t>
         </is>
       </c>
       <c r="P31" t="inlineStr"/>
@@ -2102,11 +2114,7 @@
       </c>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="V31" t="inlineStr"/>
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
@@ -2142,17 +2150,17 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Aivy</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Driver</t>
+          <t>@ Store w/ Sarah</t>
         </is>
       </c>
       <c r="P32" t="inlineStr"/>
@@ -2176,7 +2184,7 @@
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W32" t="inlineStr"/>
@@ -2202,17 +2210,17 @@
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>@ Store w/ Sarah</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P33" t="inlineStr"/>
@@ -2231,7 +2239,7 @@
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
         <is>
-          <t>DHILLON'S BP, MARKESAN</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W33" t="inlineStr"/>
@@ -2257,12 +2265,12 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -2278,7 +2286,7 @@
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr">
         <is>
-          <t>N1894 WI-44 (HWY 44 &amp; 73)</t>
+          <t>DHILLON'S BP, MARKESAN</t>
         </is>
       </c>
       <c r="W34" t="inlineStr"/>
@@ -2308,12 +2316,12 @@
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t>Jacqui</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -2329,7 +2337,7 @@
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/uRQ5w6AXAun5KEMW7</t>
+          <t>N1894 WI-44 (HWY 44 &amp; 73)</t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
@@ -2359,12 +2367,12 @@
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Jacqui</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -2380,7 +2388,7 @@
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr">
         <is>
-          <t>5:15 am meet for Sarah &amp; Aivy at Wayside Park</t>
+          <t>https://goo.gl/maps/uRQ5w6AXAun5KEMW7</t>
         </is>
       </c>
       <c r="W36" t="inlineStr"/>
@@ -2406,12 +2414,12 @@
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -2425,7 +2433,11 @@
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>5:15 am meet for Sarah &amp; Aivy at Wayside Park</t>
+        </is>
+      </c>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
@@ -2461,12 +2473,12 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -2479,21 +2491,9 @@
       <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>Driver, Equip</t>
-        </is>
-      </c>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
     </row>
@@ -2528,12 +2528,12 @@
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -2548,17 +2548,17 @@
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>Aivy</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>@ Store w/ Sarah</t>
+          <t>Driver, Equip</t>
         </is>
       </c>
       <c r="X39" t="inlineStr"/>
@@ -2583,12 +2583,12 @@
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Terri</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -2603,17 +2603,17 @@
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>Josie</t>
+          <t>Aivy</t>
         </is>
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>@ Store w/ Lori</t>
+          <t>@ Store w/ Sarah</t>
         </is>
       </c>
       <c r="X40" t="inlineStr"/>
@@ -2632,21 +2632,9 @@
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>Terri</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr"/>
@@ -2654,17 +2642,17 @@
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Josie</t>
         </is>
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>@ Store, Driver</t>
+          <t>@ Store w/ Lori</t>
         </is>
       </c>
       <c r="X41" t="inlineStr"/>
@@ -2707,9 +2695,21 @@
       <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
-      <c r="W42" t="inlineStr"/>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>@ Store, Driver</t>
+        </is>
+      </c>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
     </row>
@@ -2743,7 +2743,11 @@
       </c>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
@@ -2788,7 +2792,7 @@
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
@@ -2835,7 +2839,7 @@
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>PICK #368 +RX, BROOKFIELD CAL-CAP</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
@@ -2870,7 +2874,7 @@
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t>PICK #368 +RX, BROOKFIELD CAL-CAP</t>
+          <t>17295 WEST CAPITOL DR</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
@@ -2901,7 +2905,7 @@
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
-          <t>17295 WEST CAPITOL DR</t>
+          <t>https://goo.gl/maps/33rm1Fc6q4o</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
@@ -2948,7 +2952,7 @@
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/33rm1Fc6q4o</t>
+          <t>SET UP ON REG #1</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
@@ -2995,7 +2999,7 @@
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
-          <t>SET UP ON REG #1</t>
+          <t>*IL Meet is 4:30 am at IL Office</t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
@@ -3040,11 +3044,7 @@
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>*IL Meet is 4:30 am at IL Office</t>
-        </is>
-      </c>
+      <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
@@ -3086,9 +3086,21 @@
       </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
-      <c r="O51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr"/>
@@ -3131,19 +3143,15 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr"/>
@@ -3182,15 +3190,19 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr"/>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr"/>
@@ -3241,19 +3253,15 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr"/>
@@ -3288,15 +3296,20 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr"/>
+          <t>Evelin</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>Driver,
+Silver Van</t>
+        </is>
+      </c>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr"/>
@@ -3331,20 +3344,15 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>Driver,
-Silver Van</t>
-        </is>
-      </c>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr"/>
@@ -3383,15 +3391,21 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Optima,
+Rx</t>
+        </is>
+      </c>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr"/>
@@ -3430,21 +3444,15 @@
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Optima,
-Rx</t>
-        </is>
-      </c>
+          <t>Kayla</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr"/>
@@ -3475,15 +3483,21 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Kayla</t>
-        </is>
-      </c>
-      <c r="O59" t="inlineStr"/>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Optima,
+Supv Rx</t>
+        </is>
+      </c>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr"/>
@@ -3514,19 +3528,17 @@
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Optima,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P60" t="inlineStr"/>
@@ -3559,12 +3571,12 @@
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -3602,12 +3614,12 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -3641,12 +3653,12 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -3692,12 +3704,12 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -3743,12 +3755,12 @@
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -3788,21 +3800,9 @@
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr"/>
@@ -3876,7 +3876,11 @@
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr"/>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6:30 AM START </t>
+        </is>
+      </c>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
@@ -3913,7 +3917,7 @@
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr">
         <is>
-          <t xml:space="preserve">6:30 AM START </t>
+          <t xml:space="preserve">MODAS-SCAN </t>
         </is>
       </c>
       <c r="O69" t="inlineStr"/>
@@ -3952,7 +3956,7 @@
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr">
         <is>
-          <t xml:space="preserve">MODAS-SCAN </t>
+          <t>KELLEY #04, BUCKLEY MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="O70" t="inlineStr"/>
@@ -3983,7 +3987,7 @@
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr">
         <is>
-          <t>KELLEY #04, BUCKLEY MOBIL, ROCKFORD</t>
+          <t>7250 E STATE ST</t>
         </is>
       </c>
       <c r="O71" t="inlineStr"/>
@@ -4014,7 +4018,7 @@
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr">
         <is>
-          <t>7250 E STATE ST</t>
+          <t>https://goo.gl/maps/iWT8Ab5cEgB2</t>
         </is>
       </c>
       <c r="O72" t="inlineStr"/>
@@ -4043,11 +4047,7 @@
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/iWT8Ab5cEgB2</t>
-        </is>
-      </c>
+      <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr"/>
@@ -4073,9 +4073,21 @@
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="inlineStr"/>
-      <c r="O74" t="inlineStr"/>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr"/>
       <c r="R74" t="inlineStr"/>
@@ -4102,19 +4114,15 @@
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="O75" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr"/>
       <c r="R75" t="inlineStr"/>
@@ -4141,12 +4149,12 @@
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="O76" t="inlineStr"/>
@@ -4176,12 +4184,12 @@
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="O77" t="inlineStr"/>
@@ -4211,12 +4219,12 @@
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="O78" t="inlineStr"/>
@@ -4231,41 +4239,6 @@
       <c r="X78" t="inlineStr"/>
       <c r="Y78" t="inlineStr"/>
     </row>
-    <row r="79">
-      <c r="A79" t="inlineStr"/>
-      <c r="B79" t="inlineStr"/>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="N79" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="inlineStr"/>
-      <c r="T79" t="inlineStr"/>
-      <c r="U79" t="inlineStr"/>
-      <c r="V79" t="inlineStr"/>
-      <c r="W79" t="inlineStr"/>
-      <c r="X79" t="inlineStr"/>
-      <c r="Y79" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/03-02-25 to 03-08-25 Madison Schedule.xlsx
+++ b/03-02-25 to 03-08-25 Madison Schedule.xlsx
@@ -2092,7 +2092,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Driver</t>
+          <t>@ Store w/ Sarah</t>
         </is>
       </c>
       <c r="P31" t="inlineStr"/>
@@ -2160,7 +2160,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>@ Store w/ Sarah</t>
+          <t>Driver</t>
         </is>
       </c>
       <c r="P32" t="inlineStr"/>
